--- a/Lista de Invitados.xlsx
+++ b/Lista de Invitados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\foro-anual-2025-fondonorma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F21BA54-CF84-4EB3-9257-54E31677C57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B83614F-F34E-4FAF-AAC1-ADB9426BF808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F3DD341-F688-4A10-A79A-4F7A043F0891}"/>
+    <workbookView xWindow="14805" yWindow="2040" windowWidth="14235" windowHeight="12420" xr2:uid="{6F3DD341-F688-4A10-A79A-4F7A043F0891}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,15 +306,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -338,13 +332,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,42 +672,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A30EEC4-80DE-46C2-8AD8-7122A98F346A}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J21"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2">
-        <f ca="1">RANDBETWEEN(8000000,30000000)</f>
-        <v>10975865</v>
+      <c r="B2" s="1">
+        <v>21249357</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -722,21 +715,16 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="str">
-        <f ca="1">"["&amp;CHAR(34)&amp;A2&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;B2&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;D2&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;E2&amp;CHAR(34)&amp;"],"</f>
-        <v>["9XY0YI3R", "10975865", "María", "González ", "Petrobras"],</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B19" ca="1" si="0">RANDBETWEEN(8000000,30000000)</f>
-        <v>15644029</v>
+      <c r="B3" s="1">
+        <v>17014831</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -744,21 +732,16 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J21" ca="1" si="1">"["&amp;CHAR(34)&amp;A3&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;B3&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;D3&amp;CHAR(34)&amp;", "&amp;CHAR(34)&amp;E3&amp;CHAR(34)&amp;"],"</f>
-        <v>["9CG6IS8W", "15644029", "Ana", "Rodríguez ", "Pemex"],</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>23292047</v>
+      <c r="B4" s="1">
+        <v>10519622</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -766,21 +749,16 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["5UX7QC2Z", "23292047", "Sofía", "Pérez ", "América Móvil"],</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8965950</v>
+      <c r="B5" s="1">
+        <v>18757686</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -788,21 +766,16 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["9CQ5FR0W", "8965950", "Valentina", "Hernández ", "JBS S.A."],</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>16895203</v>
+      <c r="B6" s="1">
+        <v>15170324</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -810,21 +783,16 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["8BD8MB3K", "16895203", "Isabella", "García ", "Vale S.A."],</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>11068827</v>
+      <c r="B7" s="1">
+        <v>27890296</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
@@ -832,21 +800,16 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["5LD9BX9I", "11068827", "Camila", "Martínez ", "Walmart"],</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>18209249</v>
+      <c r="B8" s="1">
+        <v>28412218</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
@@ -854,21 +817,16 @@
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["8PO0BQ0I", "18209249", "Mariana", "Sánchez ", "Empresas Copec"],</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>29343856</v>
+      <c r="B9" s="1">
+        <v>24074259</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -876,21 +834,16 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["0ZZ8FO4R", "29343856", "Elizabeth", "López ", "Fomento Económico Mexicano"],</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>13639191</v>
+      <c r="B10" s="1">
+        <v>13584754</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>33</v>
@@ -898,21 +851,16 @@
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["4YD7OH9R", "13639191", "Nicole", "Díaz ", "Techint Argentina"],</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>10246737</v>
+      <c r="B11" s="1">
+        <v>12301414</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
@@ -920,21 +868,16 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["1VG2ZI2O", "10246737", "Victoria", "Rojas ", "Ultrapar"],</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>29442827</v>
+      <c r="B12" s="1">
+        <v>22373941</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
@@ -942,21 +885,16 @@
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["5EP8XA7L", "29442827", "José", "Ramírez ", "PDVSA"],</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>11929770</v>
+      <c r="B13" s="1">
+        <v>14944376</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>36</v>
@@ -964,21 +902,16 @@
       <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["5DP2RT9P", "11929770", "Juan", "Castillo ", "YPF"],</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>22032048</v>
+      <c r="B14" s="1">
+        <v>12949169</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>37</v>
@@ -986,21 +919,16 @@
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["1EU5ND0O", "22032048", "Luis", "Gómez ", "Raizen"],</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>27684505</v>
+      <c r="B15" s="1">
+        <v>21203097</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
@@ -1008,21 +936,16 @@
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["2SM5MH9O", "27684505", "Carlos", "Romero ", "General Motors"],</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>19980172</v>
+      <c r="B16" s="1">
+        <v>26308154</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>39</v>
@@ -1030,21 +953,16 @@
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["2WB5YB5T", "19980172", "Miguel", "Fernández ", "Ecopetrol"],</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>21795753</v>
+      <c r="B17" s="1">
+        <v>14152132</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>40</v>
@@ -1052,21 +970,16 @@
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["2IZ2LA8P", "21795753", "Gabriel", "Torres ", "Grupo Ipiranga"],</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>15213696</v>
+      <c r="B18" s="1">
+        <v>16014651</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>41</v>
@@ -1074,21 +987,16 @@
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["1SS9RV4C", "15213696", "Diego", "Mendoza ", "Grupo Alfa"],</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>29887440</v>
+      <c r="B19" s="1">
+        <v>23007343</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
@@ -1096,21 +1004,16 @@
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["9AT0ZJ7D", "29887440", "Antonio", "Medina ", "Almecenes Éxito"],</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B20">
-        <f ca="1">RANDBETWEEN(8000000,30000000)</f>
-        <v>15268794</v>
+      <c r="B20" s="1">
+        <v>15588177</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>43</v>
@@ -1118,21 +1021,16 @@
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["9IH3RE3L", "15268794", "Jesús", "Moreno ", "Polar"],</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B21">
-        <f ca="1">RANDBETWEEN(8000000,30000000)</f>
-        <v>18925015</v>
+      <c r="B21" s="1">
+        <v>16610571</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>44</v>
@@ -1140,12 +1038,8 @@
       <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>["3JL6UY3P", "18925015", "Francisco", "Gutiérrez ", "Nestlé"],</v>
       </c>
     </row>
   </sheetData>
